--- a/RPS Sistem Informasi Akuntansi.xlsx
+++ b/RPS Sistem Informasi Akuntansi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Pak Fai\RPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Pak Fai\RPS1\RPS-KA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,13 +186,7 @@
     <t>: Mira Afrina, S.E., M.Sc.</t>
   </si>
   <si>
-    <t>: Sistem Informasi Akuntansi</t>
-  </si>
-  <si>
     <t>: II</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Akuntansi</t>
   </si>
   <si>
     <t xml:space="preserve">NIPUS. </t>
@@ -404,6 +398,12 @@
   </si>
   <si>
     <t>Matakuliah ini membahas tentang perkembangan teknologi informasi yang diaplikasikan kedalam ranah akuntansi untuk membantu dalam proses berbagai macam siklus akuntansi</t>
+  </si>
+  <si>
+    <t>: Sistem Informasi Akuntansi / FKA007217</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Akuntansi / FKA008217</t>
   </si>
 </sst>
 </file>
@@ -567,21 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -600,10 +585,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,95 +1003,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1164,20 +1164,20 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1195,16 +1195,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="B21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1221,29 +1221,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="B24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1260,22 +1260,22 @@
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1299,10 +1299,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1326,159 +1326,159 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>1</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>2</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
-        <v>3</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>4</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="D33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>5</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="D34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
-        <v>5</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>6</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>36</v>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>7</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1502,106 +1502,106 @@
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>8</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>9</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="D38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
-        <v>9</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>10</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>10</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>35</v>
@@ -1610,98 +1610,98 @@
         <v>39</v>
       </c>
       <c r="H40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>13</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
-        <v>13</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>14</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="D42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
-        <v>14</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>15</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="D43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
-        <v>15</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>16</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1750,7 +1750,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1876,7 +1876,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -1885,6 +1885,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1893,27 +1914,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1926,7 +1926,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,95 +1942,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2057,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2103,20 +2103,20 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2134,16 +2134,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="B21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2160,29 +2160,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="B24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2199,22 +2199,22 @@
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
@@ -2238,10 +2238,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
@@ -2265,159 +2265,159 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>1</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>2</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
-        <v>3</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>4</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="D33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>5</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="D34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
-        <v>5</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>6</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>36</v>
@@ -2427,10 +2427,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>7</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2441,106 +2441,106 @@
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>8</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>9</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="D38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
-        <v>9</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>10</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>10</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>35</v>
@@ -2549,98 +2549,98 @@
         <v>39</v>
       </c>
       <c r="H40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>13</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
-        <v>13</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>14</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="D42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
-        <v>14</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>15</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="D43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
-        <v>15</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>16</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2689,7 +2689,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2815,7 +2815,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="16"/>
@@ -2824,6 +2824,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2836,23 +2853,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Sistem Informasi Akuntansi.xlsx
+++ b/RPS Sistem Informasi Akuntansi.xlsx
@@ -567,6 +567,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -583,27 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,95 +1003,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1164,16 +1164,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1195,16 +1195,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1221,29 +1221,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1260,22 +1260,22 @@
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1299,10 +1299,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="21">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="21">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>60</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="21">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>64</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
@@ -1461,10 +1461,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1509,10 +1509,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="21">
         <v>8</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>75</v>
       </c>
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="21">
         <v>9</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>81</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>83</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>89</v>
       </c>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="21">
         <v>13</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>91</v>
       </c>
@@ -1644,10 +1644,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="21">
         <v>14</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
@@ -1671,10 +1671,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>15</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>99</v>
       </c>
@@ -1698,10 +1698,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="21">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1885,27 +1885,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1914,6 +1893,27 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1942,95 +1942,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2103,16 +2103,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2134,16 +2134,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2160,29 +2160,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2199,22 +2199,22 @@
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
@@ -2238,10 +2238,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
@@ -2265,10 +2265,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="21">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2292,10 +2292,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
@@ -2319,10 +2319,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="21">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>60</v>
       </c>
@@ -2346,10 +2346,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="21">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>64</v>
       </c>
@@ -2373,10 +2373,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
@@ -2400,10 +2400,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
@@ -2427,10 +2427,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2448,10 +2448,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="21">
         <v>8</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>75</v>
       </c>
@@ -2475,10 +2475,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="21">
         <v>9</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>81</v>
       </c>
@@ -2502,10 +2502,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>10</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>83</v>
       </c>
@@ -2529,10 +2529,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>89</v>
       </c>
@@ -2556,10 +2556,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="21">
         <v>13</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>91</v>
       </c>
@@ -2583,10 +2583,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="21">
         <v>14</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
@@ -2610,10 +2610,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>15</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>99</v>
       </c>
@@ -2637,10 +2637,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="21">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2824,11 +2824,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2841,18 +2848,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
